--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/123/word_level_predictions_123.xlsx
@@ -577,81 +577,81 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IMU calibration required Calibrate IMU .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>IMU calibration required Calibrate IMU .</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>required</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Recorder</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Recorder</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,59 +4553,59 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G203" t="b">
@@ -11001,57 +11001,57 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -18130,106 +18130,106 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F342" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -21042,158 +21042,158 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="n">
+      <c r="A397" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B397" t="inlineStr">
+      <c r="B397" s="2" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr">
+      <c r="C397" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D397" t="n">
+      <c r="D397" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E397" t="inlineStr">
+      <c r="E397" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F397" t="inlineStr">
+      <c r="F397" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G397" t="b">
-        <v>1</v>
-      </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I397" t="b">
-        <v>1</v>
-      </c>
-      <c r="J397" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K397" t="b">
-        <v>1</v>
-      </c>
-      <c r="L397" t="inlineStr">
+      <c r="G397" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H397" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I397" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J397" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K397" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L397" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="n">
+      <c r="A398" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B398" t="inlineStr">
+      <c r="B398" s="2" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr">
+      <c r="C398" s="2" t="inlineStr">
         <is>
           <t>power</t>
         </is>
       </c>
-      <c r="D398" t="n">
-        <v>1</v>
-      </c>
-      <c r="E398" t="inlineStr">
+      <c r="D398" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E398" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F398" t="inlineStr">
+      <c r="F398" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G398" t="b">
-        <v>1</v>
-      </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I398" t="b">
-        <v>1</v>
-      </c>
-      <c r="J398" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K398" t="b">
-        <v>1</v>
-      </c>
-      <c r="L398" t="inlineStr">
+      <c r="G398" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H398" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I398" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J398" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K398" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L398" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="n">
+      <c r="A399" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B399" t="inlineStr">
+      <c r="B399" s="2" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr">
+      <c r="C399" s="2" t="inlineStr">
         <is>
           <t>insufficient</t>
         </is>
       </c>
-      <c r="D399" t="n">
+      <c r="D399" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E399" t="inlineStr">
+      <c r="E399" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G399" t="b">
-        <v>1</v>
-      </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I399" t="b">
-        <v>1</v>
-      </c>
-      <c r="J399" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K399" t="b">
-        <v>1</v>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F399" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G399" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H399" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I399" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J399" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K399" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L399" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G458" t="b">
@@ -24261,59 +24261,59 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>42</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>2</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G460" t="b">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/123/word_level_predictions_123.xlsx
@@ -577,7 +577,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -601,57 +601,57 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>required</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,83 +4529,83 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10977,81 +10977,81 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>19</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>7</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -18130,106 +18130,106 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" t="n">
         <v>30</v>
       </c>
-      <c r="B341" s="2" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" s="2" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" s="2" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
-      <c r="E341" s="2" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" s="2" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L341" s="2" t="inlineStr">
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" t="n">
         <v>30</v>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B342" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
+      <c r="C342" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" s="2" t="n">
+      <c r="D342" t="n">
         <v>3</v>
       </c>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="E342" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -21042,158 +21042,158 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="2" t="n">
+      <c r="A397" t="n">
         <v>36</v>
       </c>
-      <c r="B397" s="2" t="inlineStr">
+      <c r="B397" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C397" s="2" t="inlineStr">
+      <c r="C397" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D397" s="2" t="n">
+      <c r="D397" t="n">
         <v>0</v>
       </c>
-      <c r="E397" s="2" t="inlineStr">
+      <c r="E397" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F397" s="2" t="inlineStr">
+      <c r="F397" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G397" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H397" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I397" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J397" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K397" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L397" s="2" t="inlineStr">
+      <c r="G397" t="b">
+        <v>1</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I397" t="b">
+        <v>1</v>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K397" t="b">
+        <v>1</v>
+      </c>
+      <c r="L397" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="2" t="n">
+      <c r="A398" t="n">
         <v>36</v>
       </c>
-      <c r="B398" s="2" t="inlineStr">
+      <c r="B398" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C398" s="2" t="inlineStr">
+      <c r="C398" t="inlineStr">
         <is>
           <t>power</t>
         </is>
       </c>
-      <c r="D398" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E398" s="2" t="inlineStr">
+      <c r="D398" t="n">
+        <v>1</v>
+      </c>
+      <c r="E398" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F398" s="2" t="inlineStr">
+      <c r="F398" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G398" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H398" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I398" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J398" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K398" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L398" s="2" t="inlineStr">
+      <c r="G398" t="b">
+        <v>1</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I398" t="b">
+        <v>1</v>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K398" t="b">
+        <v>1</v>
+      </c>
+      <c r="L398" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="2" t="n">
+      <c r="A399" t="n">
         <v>36</v>
       </c>
-      <c r="B399" s="2" t="inlineStr">
+      <c r="B399" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C399" s="2" t="inlineStr">
+      <c r="C399" t="inlineStr">
         <is>
           <t>insufficient</t>
         </is>
       </c>
-      <c r="D399" s="2" t="n">
+      <c r="D399" t="n">
         <v>2</v>
       </c>
-      <c r="E399" s="2" t="inlineStr">
+      <c r="E399" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F399" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G399" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H399" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I399" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J399" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K399" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L399" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G399" t="b">
+        <v>1</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I399" t="b">
+        <v>1</v>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K399" t="b">
+        <v>1</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24237,83 +24237,83 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B459" s="2" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C459" s="2" t="inlineStr">
+        <is>
+          <t>Temp</t>
+        </is>
+      </c>
+      <c r="D459" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E459" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="n">
-        <v>42</v>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>Temp</t>
-        </is>
-      </c>
-      <c r="D459" t="n">
-        <v>2</v>
-      </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G460" t="b">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
